--- a/scene_cat_exp_2023.2.2/input_files/7_scenecat_categorization_kitchens_1.xlsx
+++ b/scene_cat_exp_2023.2.2/input_files/7_scenecat_categorization_kitchens_1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -497,53 +497,53 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_p3hpc.png</t>
+          <t>stimuli/img_pna7l.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>72.83333333333333</v>
+        <v>85.53333333333333</v>
       </c>
       <c r="N2">
-        <v>52.22222222222222</v>
+        <v>67.97777777777777</v>
       </c>
       <c r="O2">
-        <v>62.52777777777777</v>
+        <v>76.75555555555556</v>
       </c>
       <c r="P2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="Q2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V2">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -589,38 +589,38 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_es7o2.png</t>
+          <t>stimuli/img_30vz5.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>52.48571428571429</v>
+        <v>86.21212121212122</v>
       </c>
       <c r="N3">
-        <v>27.54285714285714</v>
+        <v>68.27272727272727</v>
       </c>
       <c r="O3">
-        <v>40.01428571428572</v>
+        <v>77.24242424242425</v>
       </c>
       <c r="P3">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -642,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -651,53 +651,53 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_uttnz.png</t>
+          <t>stimuli/img_es7o2.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>69.91891891891892</v>
+        <v>52.48571428571429</v>
       </c>
       <c r="N4">
-        <v>49.91891891891892</v>
+        <v>27.54285714285714</v>
       </c>
       <c r="O4">
-        <v>59.91891891891892</v>
+        <v>40.01428571428572</v>
       </c>
       <c r="P4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -719,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -728,53 +728,53 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_7wul8.png</t>
+          <t>stimuli/img_5m6x4.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>43.03030303030303</v>
+        <v>80.23076923076923</v>
       </c>
       <c r="N5">
-        <v>25.54545454545455</v>
+        <v>58.41025641025641</v>
       </c>
       <c r="O5">
-        <v>34.28787878787879</v>
+        <v>69.32051282051282</v>
       </c>
       <c r="P5">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -796,7 +796,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -820,38 +820,38 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_wyl6z.png</t>
+          <t>stimuli/img_nyv2b.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>59.8235294117647</v>
+        <v>11.91176470588235</v>
       </c>
       <c r="N6">
-        <v>36.23529411764706</v>
+        <v>6.852941176470588</v>
       </c>
       <c r="O6">
-        <v>48.02941176470588</v>
+        <v>9.382352941176471</v>
       </c>
       <c r="P6">
         <v>34</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -873,7 +873,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -882,53 +882,53 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_abobq.png</t>
+          <t>stimuli/img_inqod.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>75.18421052631579</v>
+        <v>70.84848484848484</v>
       </c>
       <c r="N7">
-        <v>54.13157894736842</v>
+        <v>50.63636363636363</v>
       </c>
       <c r="O7">
-        <v>64.65789473684211</v>
+        <v>60.74242424242424</v>
       </c>
       <c r="P7">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -950,7 +950,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -959,53 +959,53 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_t90e2.png</t>
+          <t>stimuli/img_d26ik.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>83.0625</v>
+        <v>77.73809523809524</v>
       </c>
       <c r="N8">
-        <v>61.96875</v>
+        <v>60.66666666666666</v>
       </c>
       <c r="O8">
-        <v>72.515625</v>
+        <v>69.20238095238095</v>
       </c>
       <c r="P8">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V8">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1027,7 +1027,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1051,38 +1051,38 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_h13c3.png</t>
+          <t>stimuli/img_n9xll.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>71.80555555555556</v>
+        <v>77.14285714285714</v>
       </c>
       <c r="N9">
-        <v>47.86111111111111</v>
+        <v>59.21428571428572</v>
       </c>
       <c r="O9">
-        <v>59.83333333333334</v>
+        <v>68.17857142857143</v>
       </c>
       <c r="P9">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V9">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1104,7 +1104,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1128,38 +1128,38 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_cv6mf.png</t>
+          <t>stimuli/img_ce9vx.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>66.8</v>
+        <v>75.90909090909091</v>
       </c>
       <c r="N10">
-        <v>42.08</v>
+        <v>57.12121212121212</v>
       </c>
       <c r="O10">
-        <v>54.44</v>
+        <v>66.51515151515152</v>
       </c>
       <c r="P10">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V10">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1181,7 +1181,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1190,53 +1190,53 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_ye5sl.png</t>
+          <t>stimuli/img_amsgw.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>53.2258064516129</v>
+        <v>86.08510638297872</v>
       </c>
       <c r="N11">
-        <v>34.45161290322581</v>
+        <v>65.95744680851064</v>
       </c>
       <c r="O11">
-        <v>43.83870967741936</v>
+        <v>76.02127659574468</v>
       </c>
       <c r="P11">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1258,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1267,53 +1267,53 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_30vz5.png</t>
+          <t>stimuli/img_ybbmx.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>86.21212121212122</v>
+        <v>55.24324324324324</v>
       </c>
       <c r="N12">
-        <v>68.27272727272727</v>
+        <v>36.75675675675676</v>
       </c>
       <c r="O12">
-        <v>77.24242424242425</v>
+        <v>46</v>
       </c>
       <c r="P12">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="V12">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1335,7 +1335,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1344,53 +1344,53 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_d8xbu.png</t>
+          <t>stimuli/img_ac0ey.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>91.36363636363636</v>
+        <v>86.62222222222222</v>
       </c>
       <c r="N13">
-        <v>73.18181818181819</v>
+        <v>70.02222222222223</v>
       </c>
       <c r="O13">
-        <v>82.27272727272728</v>
+        <v>78.32222222222222</v>
       </c>
       <c r="P13">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V13">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1412,7 +1412,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1436,38 +1436,38 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_6nbgt.png</t>
+          <t>stimuli/img_ye5sl.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>78.45161290322581</v>
+        <v>53.2258064516129</v>
       </c>
       <c r="N14">
-        <v>57.83870967741935</v>
+        <v>34.45161290322581</v>
       </c>
       <c r="O14">
-        <v>68.14516129032258</v>
+        <v>43.83870967741936</v>
       </c>
       <c r="P14">
         <v>31</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1489,7 +1489,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1498,53 +1498,53 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_ce9vx.png</t>
+          <t>stimuli/img_yosqb.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>75.90909090909091</v>
+        <v>50.88372093023256</v>
       </c>
       <c r="N15">
-        <v>57.12121212121212</v>
+        <v>30.11627906976744</v>
       </c>
       <c r="O15">
-        <v>66.51515151515152</v>
+        <v>40.5</v>
       </c>
       <c r="P15">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V15">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1566,7 +1566,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1590,38 +1590,38 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_njmgp.png</t>
+          <t>stimuli/img_6nbgt.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>80.48148148148148</v>
+        <v>78.45161290322581</v>
       </c>
       <c r="N16">
-        <v>58.4074074074074</v>
+        <v>57.83870967741935</v>
       </c>
       <c r="O16">
-        <v>69.44444444444444</v>
+        <v>68.14516129032258</v>
       </c>
       <c r="P16">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V16">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1643,7 +1643,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1652,53 +1652,53 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_yeh72.png</t>
+          <t>stimuli/img_8dacu.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>68.66666666666667</v>
+        <v>76.38461538461539</v>
       </c>
       <c r="N17">
-        <v>45.21212121212121</v>
+        <v>53.64102564102564</v>
       </c>
       <c r="O17">
-        <v>56.93939393939394</v>
+        <v>65.01282051282051</v>
       </c>
       <c r="P17">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V17">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1720,7 +1720,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1744,38 +1744,38 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_inqod.png</t>
+          <t>stimuli/img_p3hpc.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>70.84848484848484</v>
+        <v>72.83333333333333</v>
       </c>
       <c r="N18">
-        <v>50.63636363636363</v>
+        <v>52.22222222222222</v>
       </c>
       <c r="O18">
-        <v>60.74242424242424</v>
+        <v>62.52777777777777</v>
       </c>
       <c r="P18">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +1797,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1806,53 +1806,53 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_cnyac.png</t>
+          <t>stimuli/img_iqmdm.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>69.14705882352941</v>
+        <v>79.38888888888889</v>
       </c>
       <c r="N19">
-        <v>47.8235294117647</v>
+        <v>58.36111111111111</v>
       </c>
       <c r="O19">
-        <v>58.48529411764706</v>
+        <v>68.875</v>
       </c>
       <c r="P19">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V19">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1874,7 +1874,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1898,38 +1898,38 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_p659z.png</t>
+          <t>stimuli/img_cnyac.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>84.21621621621621</v>
+        <v>69.14705882352941</v>
       </c>
       <c r="N20">
-        <v>65.37837837837837</v>
+        <v>47.8235294117647</v>
       </c>
       <c r="O20">
-        <v>74.79729729729729</v>
+        <v>58.48529411764706</v>
       </c>
       <c r="P20">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V20">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1951,7 +1951,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1960,53 +1960,53 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_huisn.png</t>
+          <t>stimuli/img_d8xbu.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>73.63888888888889</v>
+        <v>91.36363636363636</v>
       </c>
       <c r="N21">
-        <v>46.36111111111111</v>
+        <v>73.18181818181819</v>
       </c>
       <c r="O21">
-        <v>60</v>
+        <v>82.27272727272728</v>
       </c>
       <c r="P21">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V21">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -2028,7 +2028,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2037,53 +2037,53 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_kost0.png</t>
+          <t>stimuli/img_aplao.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>63.09090909090909</v>
+        <v>64.09090909090909</v>
       </c>
       <c r="N22">
-        <v>42.77272727272727</v>
+        <v>40.75757575757576</v>
       </c>
       <c r="O22">
-        <v>52.93181818181819</v>
+        <v>52.42424242424242</v>
       </c>
       <c r="P22">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -2105,7 +2105,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2114,53 +2114,53 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_eatdk.png</t>
+          <t>stimuli/img_dkqas.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>81.40625</v>
+        <v>78.57894736842105</v>
       </c>
       <c r="N23">
-        <v>61.375</v>
+        <v>57.71052631578947</v>
       </c>
       <c r="O23">
-        <v>71.390625</v>
+        <v>68.14473684210526</v>
       </c>
       <c r="P23">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -2182,7 +2182,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2191,53 +2191,53 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_aplao.png</t>
+          <t>stimuli/img_fea1z.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>64.09090909090909</v>
+        <v>79.45945945945945</v>
       </c>
       <c r="N24">
-        <v>40.75757575757576</v>
+        <v>56.24324324324324</v>
       </c>
       <c r="O24">
-        <v>52.42424242424242</v>
+        <v>67.85135135135135</v>
       </c>
       <c r="P24">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V24">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -2259,7 +2259,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2268,53 +2268,53 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_xu1p3.png</t>
+          <t>stimuli/img_cv6mf.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>75.27659574468085</v>
+        <v>66.8</v>
       </c>
       <c r="N25">
-        <v>56.68085106382978</v>
+        <v>42.08</v>
       </c>
       <c r="O25">
-        <v>65.97872340425532</v>
+        <v>54.44</v>
       </c>
       <c r="P25">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V25">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -2336,7 +2336,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2360,38 +2360,38 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_nyv2b.png</t>
+          <t>stimuli/img_p659z.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>11.91176470588235</v>
+        <v>84.21621621621621</v>
       </c>
       <c r="N26">
-        <v>6.852941176470588</v>
+        <v>65.37837837837837</v>
       </c>
       <c r="O26">
-        <v>9.382352941176471</v>
+        <v>74.79729729729729</v>
       </c>
       <c r="P26">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -2413,7 +2413,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2422,35 +2422,35 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_iyxnj.png</t>
+          <t>stimuli/img_u1rxv.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>75.30555555555556</v>
+        <v>75.63636363636364</v>
       </c>
       <c r="N27">
-        <v>54.33333333333334</v>
+        <v>54.27272727272727</v>
       </c>
       <c r="O27">
-        <v>64.81944444444444</v>
+        <v>64.95454545454545</v>
       </c>
       <c r="P27">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -2468,6 +2468,1084 @@
         <v>6</v>
       </c>
       <c r="V27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>27</v>
+      </c>
+      <c r="F28">
+        <v>189</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>distractor</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>stimuli/img_f63yi.png</t>
+        </is>
+      </c>
+      <c r="M28">
+        <v>85.27500000000001</v>
+      </c>
+      <c r="N28">
+        <v>68.47499999999999</v>
+      </c>
+      <c r="O28">
+        <v>76.875</v>
+      </c>
+      <c r="P28">
+        <v>40</v>
+      </c>
+      <c r="Q28">
+        <v>9</v>
+      </c>
+      <c r="R28">
+        <v>9</v>
+      </c>
+      <c r="S28">
+        <v>9</v>
+      </c>
+      <c r="T28">
+        <v>9</v>
+      </c>
+      <c r="U28">
+        <v>8</v>
+      </c>
+      <c r="V28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>28</v>
+      </c>
+      <c r="F29">
+        <v>190</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>stimuli/img_yeh72.png</t>
+        </is>
+      </c>
+      <c r="M29">
+        <v>68.66666666666667</v>
+      </c>
+      <c r="N29">
+        <v>45.21212121212121</v>
+      </c>
+      <c r="O29">
+        <v>56.93939393939394</v>
+      </c>
+      <c r="P29">
+        <v>33</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <v>4</v>
+      </c>
+      <c r="S29">
+        <v>4</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
+        <v>4</v>
+      </c>
+      <c r="V29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <v>191</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>stimuli/img_iyxnj.png</t>
+        </is>
+      </c>
+      <c r="M30">
+        <v>75.30555555555556</v>
+      </c>
+      <c r="N30">
+        <v>54.33333333333334</v>
+      </c>
+      <c r="O30">
+        <v>64.81944444444444</v>
+      </c>
+      <c r="P30">
+        <v>36</v>
+      </c>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <v>6</v>
+      </c>
+      <c r="S30">
+        <v>6</v>
+      </c>
+      <c r="T30">
+        <v>6</v>
+      </c>
+      <c r="U30">
+        <v>6</v>
+      </c>
+      <c r="V30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>192</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>stimuli/img_7wul8.png</t>
+        </is>
+      </c>
+      <c r="M31">
+        <v>43.03030303030303</v>
+      </c>
+      <c r="N31">
+        <v>25.54545454545455</v>
+      </c>
+      <c r="O31">
+        <v>34.28787878787879</v>
+      </c>
+      <c r="P31">
+        <v>33</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <v>193</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>stimuli/img_wyl6z.png</t>
+        </is>
+      </c>
+      <c r="M32">
+        <v>59.8235294117647</v>
+      </c>
+      <c r="N32">
+        <v>36.23529411764706</v>
+      </c>
+      <c r="O32">
+        <v>48.02941176470588</v>
+      </c>
+      <c r="P32">
+        <v>34</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="R32">
+        <v>3</v>
+      </c>
+      <c r="S32">
+        <v>3</v>
+      </c>
+      <c r="T32">
+        <v>3</v>
+      </c>
+      <c r="U32">
+        <v>3</v>
+      </c>
+      <c r="V32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>194</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>stimuli/img_eatdk.png</t>
+        </is>
+      </c>
+      <c r="M33">
+        <v>81.40625</v>
+      </c>
+      <c r="N33">
+        <v>61.375</v>
+      </c>
+      <c r="O33">
+        <v>71.390625</v>
+      </c>
+      <c r="P33">
+        <v>32</v>
+      </c>
+      <c r="Q33">
+        <v>8</v>
+      </c>
+      <c r="R33">
+        <v>8</v>
+      </c>
+      <c r="S33">
+        <v>8</v>
+      </c>
+      <c r="T33">
+        <v>8</v>
+      </c>
+      <c r="U33">
+        <v>8</v>
+      </c>
+      <c r="V33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>33</v>
+      </c>
+      <c r="F34">
+        <v>195</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>distractor</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>stimuli/img_6zz63.png</t>
+        </is>
+      </c>
+      <c r="M34">
+        <v>87.66666666666667</v>
+      </c>
+      <c r="N34">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="O34">
+        <v>79.13333333333333</v>
+      </c>
+      <c r="P34">
+        <v>45</v>
+      </c>
+      <c r="Q34">
+        <v>9</v>
+      </c>
+      <c r="R34">
+        <v>10</v>
+      </c>
+      <c r="S34">
+        <v>10</v>
+      </c>
+      <c r="T34">
+        <v>9</v>
+      </c>
+      <c r="U34">
+        <v>9</v>
+      </c>
+      <c r="V34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>196</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>distractor</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>stimuli/img_95hiv.png</t>
+        </is>
+      </c>
+      <c r="M35">
+        <v>84.04545454545455</v>
+      </c>
+      <c r="N35">
+        <v>67.31818181818181</v>
+      </c>
+      <c r="O35">
+        <v>75.68181818181819</v>
+      </c>
+      <c r="P35">
+        <v>44</v>
+      </c>
+      <c r="Q35">
+        <v>9</v>
+      </c>
+      <c r="R35">
+        <v>9</v>
+      </c>
+      <c r="S35">
+        <v>9</v>
+      </c>
+      <c r="T35">
+        <v>8</v>
+      </c>
+      <c r="U35">
+        <v>8</v>
+      </c>
+      <c r="V35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36">
+        <v>197</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>distractor</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>stimuli/img_wgkqa.png</t>
+        </is>
+      </c>
+      <c r="M36">
+        <v>87.25581395348837</v>
+      </c>
+      <c r="N36">
+        <v>71.13953488372093</v>
+      </c>
+      <c r="O36">
+        <v>79.19767441860465</v>
+      </c>
+      <c r="P36">
+        <v>43</v>
+      </c>
+      <c r="Q36">
+        <v>10</v>
+      </c>
+      <c r="R36">
+        <v>10</v>
+      </c>
+      <c r="S36">
+        <v>10</v>
+      </c>
+      <c r="T36">
+        <v>9</v>
+      </c>
+      <c r="U36">
+        <v>9</v>
+      </c>
+      <c r="V36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+      <c r="F37">
+        <v>198</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>stimuli/img_njmgp.png</t>
+        </is>
+      </c>
+      <c r="M37">
+        <v>80.48148148148148</v>
+      </c>
+      <c r="N37">
+        <v>58.4074074074074</v>
+      </c>
+      <c r="O37">
+        <v>69.44444444444444</v>
+      </c>
+      <c r="P37">
+        <v>27</v>
+      </c>
+      <c r="Q37">
+        <v>8</v>
+      </c>
+      <c r="R37">
+        <v>8</v>
+      </c>
+      <c r="S37">
+        <v>8</v>
+      </c>
+      <c r="T37">
+        <v>8</v>
+      </c>
+      <c r="U37">
+        <v>8</v>
+      </c>
+      <c r="V37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+      <c r="F38">
+        <v>199</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>distractor</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>stimuli/img_1zhz6.png</t>
+        </is>
+      </c>
+      <c r="M38">
+        <v>49.02272727272727</v>
+      </c>
+      <c r="N38">
+        <v>32.77272727272727</v>
+      </c>
+      <c r="O38">
+        <v>40.89772727272727</v>
+      </c>
+      <c r="P38">
+        <v>44</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
+      <c r="R38">
+        <v>3</v>
+      </c>
+      <c r="S38">
+        <v>3</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="U38">
+        <v>3</v>
+      </c>
+      <c r="V38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+      <c r="F39">
+        <v>200</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>distractor</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>stimuli/img_0jzz7.png</t>
+        </is>
+      </c>
+      <c r="M39">
+        <v>84.85106382978724</v>
+      </c>
+      <c r="N39">
+        <v>68.87234042553192</v>
+      </c>
+      <c r="O39">
+        <v>76.86170212765958</v>
+      </c>
+      <c r="P39">
+        <v>47</v>
+      </c>
+      <c r="Q39">
+        <v>9</v>
+      </c>
+      <c r="R39">
+        <v>9</v>
+      </c>
+      <c r="S39">
+        <v>9</v>
+      </c>
+      <c r="T39">
+        <v>9</v>
+      </c>
+      <c r="U39">
+        <v>8</v>
+      </c>
+      <c r="V39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+      <c r="F40">
+        <v>201</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>stimuli/img_t90e2.png</t>
+        </is>
+      </c>
+      <c r="M40">
+        <v>83.0625</v>
+      </c>
+      <c r="N40">
+        <v>61.96875</v>
+      </c>
+      <c r="O40">
+        <v>72.515625</v>
+      </c>
+      <c r="P40">
+        <v>32</v>
+      </c>
+      <c r="Q40">
+        <v>9</v>
+      </c>
+      <c r="R40">
+        <v>9</v>
+      </c>
+      <c r="S40">
+        <v>9</v>
+      </c>
+      <c r="T40">
+        <v>9</v>
+      </c>
+      <c r="U40">
+        <v>9</v>
+      </c>
+      <c r="V40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>categorization</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <v>202</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>distractor</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>stimuli/img_d9ogj.png</t>
+        </is>
+      </c>
+      <c r="M41">
+        <v>76.86842105263158</v>
+      </c>
+      <c r="N41">
+        <v>53.5</v>
+      </c>
+      <c r="O41">
+        <v>65.18421052631578</v>
+      </c>
+      <c r="P41">
+        <v>38</v>
+      </c>
+      <c r="Q41">
+        <v>6</v>
+      </c>
+      <c r="R41">
+        <v>6</v>
+      </c>
+      <c r="S41">
+        <v>6</v>
+      </c>
+      <c r="T41">
+        <v>6</v>
+      </c>
+      <c r="U41">
+        <v>6</v>
+      </c>
+      <c r="V41">
         <v>6</v>
       </c>
     </row>

--- a/scene_cat_exp_2023.2.2/input_files/7_scenecat_categorization_kitchens_1.xlsx
+++ b/scene_cat_exp_2023.2.2/input_files/7_scenecat_categorization_kitchens_1.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -497,53 +497,53 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_pna7l.png</t>
+          <t>stimuli/img_wyl6z.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>85.53333333333333</v>
+        <v>59.8235294117647</v>
       </c>
       <c r="N2">
-        <v>67.97777777777777</v>
+        <v>36.23529411764706</v>
       </c>
       <c r="O2">
-        <v>76.75555555555556</v>
+        <v>48.02941176470588</v>
       </c>
       <c r="P2">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Q2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="U2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="V2">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -589,38 +589,38 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_30vz5.png</t>
+          <t>stimuli/img_ce9vx.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>86.21212121212122</v>
+        <v>75.90909090909091</v>
       </c>
       <c r="N3">
-        <v>68.27272727272727</v>
+        <v>57.12121212121212</v>
       </c>
       <c r="O3">
-        <v>77.24242424242425</v>
+        <v>66.51515151515152</v>
       </c>
       <c r="P3">
         <v>33</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V3">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -642,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>165</v>
+        <v>3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -666,38 +666,38 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_es7o2.png</t>
+          <t>stimuli/img_nyv2b.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>52.48571428571429</v>
+        <v>11.91176470588235</v>
       </c>
       <c r="N4">
-        <v>27.54285714285714</v>
+        <v>6.852941176470588</v>
       </c>
       <c r="O4">
-        <v>40.01428571428572</v>
+        <v>9.382352941176471</v>
       </c>
       <c r="P4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -719,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>166</v>
+        <v>4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -743,20 +743,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_5m6x4.png</t>
+          <t>stimuli/img_n9xll.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>80.23076923076923</v>
+        <v>77.14285714285714</v>
       </c>
       <c r="N5">
-        <v>58.41025641025641</v>
+        <v>59.21428571428572</v>
       </c>
       <c r="O5">
-        <v>69.32051282051282</v>
+        <v>68.17857142857143</v>
       </c>
       <c r="P5">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -796,7 +796,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>167</v>
+        <v>5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -805,53 +805,53 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_nyv2b.png</t>
+          <t>stimuli/img_dkqas.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>11.91176470588235</v>
+        <v>78.57894736842105</v>
       </c>
       <c r="N6">
-        <v>6.852941176470588</v>
+        <v>57.71052631578947</v>
       </c>
       <c r="O6">
-        <v>9.382352941176471</v>
+        <v>68.14473684210526</v>
       </c>
       <c r="P6">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -873,7 +873,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -882,53 +882,53 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_inqod.png</t>
+          <t>stimuli/img_pna7l.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>70.84848484848484</v>
+        <v>85.53333333333333</v>
       </c>
       <c r="N7">
-        <v>50.63636363636363</v>
+        <v>67.97777777777777</v>
       </c>
       <c r="O7">
-        <v>60.74242424242424</v>
+        <v>76.75555555555556</v>
       </c>
       <c r="P7">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="V7">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -950,7 +950,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -959,53 +959,53 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_d26ik.png</t>
+          <t>stimuli/img_30vz5.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>77.73809523809524</v>
+        <v>86.21212121212122</v>
       </c>
       <c r="N8">
-        <v>60.66666666666666</v>
+        <v>68.27272727272727</v>
       </c>
       <c r="O8">
-        <v>69.20238095238095</v>
+        <v>77.24242424242425</v>
       </c>
       <c r="P8">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V8">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1027,7 +1027,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1036,53 +1036,53 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_n9xll.png</t>
+          <t>stimuli/img_es7o2.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>77.14285714285714</v>
+        <v>52.48571428571429</v>
       </c>
       <c r="N9">
-        <v>59.21428571428572</v>
+        <v>27.54285714285714</v>
       </c>
       <c r="O9">
-        <v>68.17857142857143</v>
+        <v>40.01428571428572</v>
       </c>
       <c r="P9">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1104,7 +1104,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1113,53 +1113,53 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_ce9vx.png</t>
+          <t>stimuli/img_amsgw.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>75.90909090909091</v>
+        <v>86.08510638297872</v>
       </c>
       <c r="N10">
-        <v>57.12121212121212</v>
+        <v>65.95744680851064</v>
       </c>
       <c r="O10">
-        <v>66.51515151515152</v>
+        <v>76.02127659574468</v>
       </c>
       <c r="P10">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V10">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1181,7 +1181,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1205,20 +1205,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_amsgw.png</t>
+          <t>stimuli/img_ac0ey.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>86.08510638297872</v>
+        <v>86.62222222222222</v>
       </c>
       <c r="N11">
-        <v>65.95744680851064</v>
+        <v>70.02222222222223</v>
       </c>
       <c r="O11">
-        <v>76.02127659574468</v>
+        <v>78.32222222222222</v>
       </c>
       <c r="P11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -1230,13 +1230,13 @@
         <v>9</v>
       </c>
       <c r="T11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U11">
         <v>9</v>
       </c>
       <c r="V11">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1258,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1282,38 +1282,38 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_ybbmx.png</t>
+          <t>stimuli/img_5m6x4.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>55.24324324324324</v>
+        <v>80.23076923076923</v>
       </c>
       <c r="N12">
-        <v>36.75675675675676</v>
+        <v>58.41025641025641</v>
       </c>
       <c r="O12">
-        <v>46</v>
+        <v>69.32051282051282</v>
       </c>
       <c r="P12">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V12">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1335,7 +1335,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1359,20 +1359,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_ac0ey.png</t>
+          <t>stimuli/img_95hiv.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>86.62222222222222</v>
+        <v>84.04545454545455</v>
       </c>
       <c r="N13">
-        <v>70.02222222222223</v>
+        <v>67.31818181818181</v>
       </c>
       <c r="O13">
-        <v>78.32222222222222</v>
+        <v>75.68181818181819</v>
       </c>
       <c r="P13">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -1384,13 +1384,13 @@
         <v>9</v>
       </c>
       <c r="T13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V13">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1412,7 +1412,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1436,38 +1436,38 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_ye5sl.png</t>
+          <t>stimuli/img_inqod.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>53.2258064516129</v>
+        <v>70.84848484848484</v>
       </c>
       <c r="N14">
-        <v>34.45161290322581</v>
+        <v>50.63636363636363</v>
       </c>
       <c r="O14">
-        <v>43.83870967741936</v>
+        <v>60.74242424242424</v>
       </c>
       <c r="P14">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1489,7 +1489,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1513,38 +1513,38 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_yosqb.png</t>
+          <t>stimuli/img_u1rxv.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>50.88372093023256</v>
+        <v>75.63636363636364</v>
       </c>
       <c r="N15">
-        <v>30.11627906976744</v>
+        <v>54.27272727272727</v>
       </c>
       <c r="O15">
-        <v>40.5</v>
+        <v>64.95454545454545</v>
       </c>
       <c r="P15">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V15">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1566,7 +1566,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1575,53 +1575,53 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_6nbgt.png</t>
+          <t>stimuli/img_f63yi.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>78.45161290322581</v>
+        <v>85.27500000000001</v>
       </c>
       <c r="N16">
-        <v>57.83870967741935</v>
+        <v>68.47499999999999</v>
       </c>
       <c r="O16">
-        <v>68.14516129032258</v>
+        <v>76.875</v>
       </c>
       <c r="P16">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V16">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1643,7 +1643,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1667,38 +1667,38 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_8dacu.png</t>
+          <t>stimuli/img_6zz63.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>76.38461538461539</v>
+        <v>87.66666666666667</v>
       </c>
       <c r="N17">
-        <v>53.64102564102564</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="O17">
-        <v>65.01282051282051</v>
+        <v>79.13333333333333</v>
       </c>
       <c r="P17">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V17">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1720,7 +1720,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>179</v>
+        <v>17</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1729,53 +1729,53 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_p3hpc.png</t>
+          <t>stimuli/img_1zhz6.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>72.83333333333333</v>
+        <v>49.02272727272727</v>
       </c>
       <c r="N18">
-        <v>52.22222222222222</v>
+        <v>32.77272727272727</v>
       </c>
       <c r="O18">
-        <v>62.52777777777777</v>
+        <v>40.89772727272727</v>
       </c>
       <c r="P18">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V18">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +1797,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1806,53 +1806,53 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_iqmdm.png</t>
+          <t>stimuli/img_ye5sl.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>79.38888888888889</v>
+        <v>53.2258064516129</v>
       </c>
       <c r="N19">
-        <v>58.36111111111111</v>
+        <v>34.45161290322581</v>
       </c>
       <c r="O19">
-        <v>68.875</v>
+        <v>43.83870967741936</v>
       </c>
       <c r="P19">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1874,7 +1874,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1883,53 +1883,53 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_cnyac.png</t>
+          <t>stimuli/img_d9ogj.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>69.14705882352941</v>
+        <v>76.86842105263158</v>
       </c>
       <c r="N20">
-        <v>47.8235294117647</v>
+        <v>53.5</v>
       </c>
       <c r="O20">
-        <v>58.48529411764706</v>
+        <v>65.18421052631578</v>
       </c>
       <c r="P20">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V20">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1951,7 +1951,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1975,38 +1975,38 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_d8xbu.png</t>
+          <t>stimuli/img_6nbgt.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>91.36363636363636</v>
+        <v>78.45161290322581</v>
       </c>
       <c r="N21">
-        <v>73.18181818181819</v>
+        <v>57.83870967741935</v>
       </c>
       <c r="O21">
-        <v>82.27272727272728</v>
+        <v>68.14516129032258</v>
       </c>
       <c r="P21">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V21">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2028,7 +2028,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2052,38 +2052,38 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_aplao.png</t>
+          <t>stimuli/img_p3hpc.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>64.09090909090909</v>
+        <v>72.83333333333333</v>
       </c>
       <c r="N22">
-        <v>40.75757575757576</v>
+        <v>52.22222222222222</v>
       </c>
       <c r="O22">
-        <v>52.42424242424242</v>
+        <v>62.52777777777777</v>
       </c>
       <c r="P22">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V22">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -2105,7 +2105,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2129,38 +2129,38 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_dkqas.png</t>
+          <t>stimuli/img_8dacu.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>78.57894736842105</v>
+        <v>76.38461538461539</v>
       </c>
       <c r="N23">
-        <v>57.71052631578947</v>
+        <v>53.64102564102564</v>
       </c>
       <c r="O23">
-        <v>68.14473684210526</v>
+        <v>65.01282051282051</v>
       </c>
       <c r="P23">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V23">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2182,7 +2182,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2191,53 +2191,53 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_fea1z.png</t>
+          <t>stimuli/img_cnyac.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>79.45945945945945</v>
+        <v>69.14705882352941</v>
       </c>
       <c r="N24">
-        <v>56.24324324324324</v>
+        <v>47.8235294117647</v>
       </c>
       <c r="O24">
-        <v>67.85135135135135</v>
+        <v>58.48529411764706</v>
       </c>
       <c r="P24">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V24">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -2259,7 +2259,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2283,38 +2283,38 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_cv6mf.png</t>
+          <t>stimuli/img_d8xbu.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>66.8</v>
+        <v>91.36363636363636</v>
       </c>
       <c r="N25">
-        <v>42.08</v>
+        <v>73.18181818181819</v>
       </c>
       <c r="O25">
-        <v>54.44</v>
+        <v>82.27272727272728</v>
       </c>
       <c r="P25">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Q25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="U25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V25">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2336,7 +2336,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2360,38 +2360,38 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_p659z.png</t>
+          <t>stimuli/img_eatdk.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>84.21621621621621</v>
+        <v>81.40625</v>
       </c>
       <c r="N26">
-        <v>65.37837837837837</v>
+        <v>61.375</v>
       </c>
       <c r="O26">
-        <v>74.79729729729729</v>
+        <v>71.390625</v>
       </c>
       <c r="P26">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V26">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -2413,7 +2413,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2437,38 +2437,38 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_u1rxv.png</t>
+          <t>stimuli/img_d26ik.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>75.63636363636364</v>
+        <v>77.73809523809524</v>
       </c>
       <c r="N27">
-        <v>54.27272727272727</v>
+        <v>60.66666666666666</v>
       </c>
       <c r="O27">
-        <v>64.95454545454545</v>
+        <v>69.20238095238095</v>
       </c>
       <c r="P27">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V27">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -2490,7 +2490,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2499,53 +2499,53 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_f63yi.png</t>
+          <t>stimuli/img_iyxnj.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>85.27500000000001</v>
+        <v>75.30555555555556</v>
       </c>
       <c r="N28">
-        <v>68.47499999999999</v>
+        <v>54.33333333333334</v>
       </c>
       <c r="O28">
-        <v>76.875</v>
+        <v>64.81944444444444</v>
       </c>
       <c r="P28">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V28">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -2567,7 +2567,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>190</v>
+        <v>28</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2591,38 +2591,38 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_yeh72.png</t>
+          <t>stimuli/img_aplao.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>68.66666666666667</v>
+        <v>64.09090909090909</v>
       </c>
       <c r="N29">
-        <v>45.21212121212121</v>
+        <v>40.75757575757576</v>
       </c>
       <c r="O29">
-        <v>56.93939393939394</v>
+        <v>52.42424242424242</v>
       </c>
       <c r="P29">
         <v>33</v>
       </c>
       <c r="Q29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V29">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -2644,7 +2644,7 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2668,38 +2668,38 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>stimuli/img_iyxnj.png</t>
+          <t>stimuli/img_cv6mf.png</t>
         </is>
       </c>
       <c r="M30">
-        <v>75.30555555555556</v>
+        <v>66.8</v>
       </c>
       <c r="N30">
-        <v>54.33333333333334</v>
+        <v>42.08</v>
       </c>
       <c r="O30">
-        <v>64.81944444444444</v>
+        <v>54.44</v>
       </c>
       <c r="P30">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Q30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V30">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -2721,7 +2721,7 @@
         <v>30</v>
       </c>
       <c r="F31">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2745,38 +2745,38 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>stimuli/img_7wul8.png</t>
+          <t>stimuli/img_yeh72.png</t>
         </is>
       </c>
       <c r="M31">
-        <v>43.03030303030303</v>
+        <v>68.66666666666667</v>
       </c>
       <c r="N31">
-        <v>25.54545454545455</v>
+        <v>45.21212121212121</v>
       </c>
       <c r="O31">
-        <v>34.28787878787879</v>
+        <v>56.93939393939394</v>
       </c>
       <c r="P31">
         <v>33</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V31">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -2798,7 +2798,7 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <v>193</v>
+        <v>31</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2822,38 +2822,38 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>stimuli/img_wyl6z.png</t>
+          <t>stimuli/img_t90e2.png</t>
         </is>
       </c>
       <c r="M32">
-        <v>59.8235294117647</v>
+        <v>83.0625</v>
       </c>
       <c r="N32">
-        <v>36.23529411764706</v>
+        <v>61.96875</v>
       </c>
       <c r="O32">
-        <v>48.02941176470588</v>
+        <v>72.515625</v>
       </c>
       <c r="P32">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="U32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="V32">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -2875,7 +2875,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <v>194</v>
+        <v>32</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2899,38 +2899,38 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>stimuli/img_eatdk.png</t>
+          <t>stimuli/img_p659z.png</t>
         </is>
       </c>
       <c r="M33">
-        <v>81.40625</v>
+        <v>84.21621621621621</v>
       </c>
       <c r="N33">
-        <v>61.375</v>
+        <v>65.37837837837837</v>
       </c>
       <c r="O33">
-        <v>71.390625</v>
+        <v>74.79729729729729</v>
       </c>
       <c r="P33">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V33">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -2952,7 +2952,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>195</v>
+        <v>33</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2976,38 +2976,38 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>stimuli/img_6zz63.png</t>
+          <t>stimuli/img_yosqb.png</t>
         </is>
       </c>
       <c r="M34">
-        <v>87.66666666666667</v>
+        <v>50.88372093023256</v>
       </c>
       <c r="N34">
-        <v>70.59999999999999</v>
+        <v>30.11627906976744</v>
       </c>
       <c r="O34">
-        <v>79.13333333333333</v>
+        <v>40.5</v>
       </c>
       <c r="P34">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R34">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S34">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T34">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="V34">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -3029,7 +3029,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3053,20 +3053,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>stimuli/img_95hiv.png</t>
+          <t>stimuli/img_0jzz7.png</t>
         </is>
       </c>
       <c r="M35">
-        <v>84.04545454545455</v>
+        <v>84.85106382978724</v>
       </c>
       <c r="N35">
-        <v>67.31818181818181</v>
+        <v>68.87234042553192</v>
       </c>
       <c r="O35">
-        <v>75.68181818181819</v>
+        <v>76.86170212765958</v>
       </c>
       <c r="P35">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q35">
         <v>9</v>
@@ -3078,13 +3078,13 @@
         <v>9</v>
       </c>
       <c r="T35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U35">
         <v>8</v>
       </c>
       <c r="V35">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -3106,7 +3106,7 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3130,38 +3130,38 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>stimuli/img_wgkqa.png</t>
+          <t>stimuli/img_ybbmx.png</t>
         </is>
       </c>
       <c r="M36">
-        <v>87.25581395348837</v>
+        <v>55.24324324324324</v>
       </c>
       <c r="N36">
-        <v>71.13953488372093</v>
+        <v>36.75675675675676</v>
       </c>
       <c r="O36">
-        <v>79.19767441860465</v>
+        <v>46</v>
       </c>
       <c r="P36">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Q36">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R36">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S36">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T36">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="U36">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="V36">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -3183,7 +3183,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3192,53 +3192,53 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>stimuli/img_njmgp.png</t>
+          <t>stimuli/img_fea1z.png</t>
         </is>
       </c>
       <c r="M37">
-        <v>80.48148148148148</v>
+        <v>79.45945945945945</v>
       </c>
       <c r="N37">
-        <v>58.4074074074074</v>
+        <v>56.24324324324324</v>
       </c>
       <c r="O37">
-        <v>69.44444444444444</v>
+        <v>67.85135135135135</v>
       </c>
       <c r="P37">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="Q37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V37">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -3260,7 +3260,7 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <v>199</v>
+        <v>37</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3284,38 +3284,38 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>stimuli/img_1zhz6.png</t>
+          <t>stimuli/img_iqmdm.png</t>
         </is>
       </c>
       <c r="M38">
-        <v>49.02272727272727</v>
+        <v>79.38888888888889</v>
       </c>
       <c r="N38">
-        <v>32.77272727272727</v>
+        <v>58.36111111111111</v>
       </c>
       <c r="O38">
-        <v>40.89772727272727</v>
+        <v>68.875</v>
       </c>
       <c r="P38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q38">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R38">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S38">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U38">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V38">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -3337,7 +3337,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3346,53 +3346,53 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/img_0jzz7.png</t>
+          <t>stimuli/img_7wul8.png</t>
         </is>
       </c>
       <c r="M39">
-        <v>84.85106382978724</v>
+        <v>43.03030303030303</v>
       </c>
       <c r="N39">
-        <v>68.87234042553192</v>
+        <v>25.54545454545455</v>
       </c>
       <c r="O39">
-        <v>76.86170212765958</v>
+        <v>34.28787878787879</v>
       </c>
       <c r="P39">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="Q39">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R39">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S39">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U39">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V39">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -3414,7 +3414,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3423,44 +3423,44 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>stimuli/img_t90e2.png</t>
+          <t>stimuli/img_wgkqa.png</t>
         </is>
       </c>
       <c r="M40">
-        <v>83.0625</v>
+        <v>87.25581395348837</v>
       </c>
       <c r="N40">
-        <v>61.96875</v>
+        <v>71.13953488372093</v>
       </c>
       <c r="O40">
-        <v>72.515625</v>
+        <v>79.19767441860465</v>
       </c>
       <c r="P40">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Q40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T40">
         <v>9</v>
@@ -3491,7 +3491,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3500,53 +3500,53 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>stimuli/img_d9ogj.png</t>
+          <t>stimuli/img_njmgp.png</t>
         </is>
       </c>
       <c r="M41">
-        <v>76.86842105263158</v>
+        <v>80.48148148148148</v>
       </c>
       <c r="N41">
-        <v>53.5</v>
+        <v>58.4074074074074</v>
       </c>
       <c r="O41">
-        <v>65.18421052631578</v>
+        <v>69.44444444444444</v>
       </c>
       <c r="P41">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="Q41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V41">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
